--- a/data/source/Input.xlsx
+++ b/data/source/Input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27660" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:AL549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:V21"/>
+      <selection activeCell="B6" sqref="B6:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1352,12 +1352,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PF2505</t>
+          <t>PS2509</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SR2509</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PX2505</t>
+          <t>JM2509</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1391,32 +1396,32 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>PF2505</t>
+          <t>IF2506</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>支撑位</t>
+          <t>30K压力位</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>短期中幅连续下跌+短期中位小幅震荡</t>
+          <t>短期小幅急速上涨+短期高位小幅震荡</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>长期低位小幅震荡</t>
+          <t>长期中位小幅震荡+短期中幅连续下跌+短期小幅连续上涨</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>长下影</t>
+          <t>下跳涨回+下跳</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>支撑位假跌破：S@3 = 0.464, S@5 = 0.459; 支撑位真跌破: S@3 = 0.398, S@5 = 0.382</t>
+          <t>支撑位假跌破：S@3 = 0.531, S@5 = 0.512; 支撑位真跌破: S@3 = 0.418, S@5 = 0.406</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1443,12 +1448,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PR2505</t>
+          <t>L2509</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EG2509</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JD2505</t>
+          <t>J2509</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1459,32 +1469,32 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>PR2505</t>
+          <t>IM2506</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>10K支撑位</t>
+          <t>30K压力位</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>短期中位小幅震荡</t>
+          <t>短期大幅连续上涨+短期中位中幅震荡</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>长期中位小幅震荡+短期小幅连续下跌</t>
+          <t>长期中位中幅震荡+短期中幅连续下跌+短期小幅连续上涨</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>上跳跌回+十字星+连续刺不破+上跳+长下影</t>
+          <t>下跳涨回+下跳+长阴跌破</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>趋势假跌破：S@3 = 0.449, S@5 = 0.422</t>
+          <t>支撑位假跌破：S@3 = 0.402, S@5 = 0.388; 支撑位真跌破: S@3 = 0.320, S@5 = 0.295</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1511,12 +1521,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NI2505</t>
+          <t>PP2509</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A2509</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C2505</t>
+          <t>A2509</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1527,32 +1542,32 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>NI2505</t>
+          <t>EC2506</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>20K支撑位</t>
+          <t>5K压力位</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>短期中幅连续上涨+中期大幅震荡下跌+短期小幅连续上涨</t>
+          <t>中期中位大幅震荡</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>长期低位小幅震荡且顶部下移+短期小幅连续上涨</t>
+          <t>短期大幅急速上涨+短期高位大幅震荡+短期大幅急速下跌</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>上跳跌回+上跳+下跳</t>
+          <t>下跳涨回+长下影+上跳跌回+长阴包前</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>趋势假跌破：S@3 = 0.421, S@5 = 0.392</t>
+          <t>趋势假跌破：S@3 = 0.330, S@5 = 0.318</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1567,12 +1582,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AP2505</t>
+          <t>CJ2601</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A2505</t>
+          <t>B2509</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1583,32 +1598,32 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>AP2505</t>
+          <t>LH2509</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>30K支撑位</t>
+          <t>手画支撑位</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>中期大幅震荡下跌+短期大幅急速上涨+中期中位中幅震荡</t>
+          <t>长期低位中幅震荡+短期中幅震荡上涨+短期大幅连续下跌</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>中期大幅连续下跌+中期中幅震荡上涨</t>
+          <t>中期中幅连续下跌+长期低位小幅震荡</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>上跳跌回</t>
+          <t>下跳+上跳+长下影+十字星</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>趋势假跌破：S@3 = 0.383, S@5 = 0.363</t>
+          <t>支撑位假跌破：S@3 = 0.472, S@5 = 0.468; 支撑位真跌破: S@3 = 0.369, S@5 = 0.342</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1626,12 +1641,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SS2505</t>
+          <t>Y2509</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CU2505</t>
+          <t>LG2509</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1642,32 +1657,27 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>SS2505</t>
+          <t>SM2509</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>30K支撑位</t>
+          <t>支撑位</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>中期中幅震荡下跌+短期中幅连续上涨</t>
+          <t>短期大幅急速上涨+短期大幅急速下跌+中期低位中幅震荡</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>中期中幅连续下跌+中期中幅震荡上涨</t>
+          <t>长期大幅连续下跌</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>上跳跌回+长阴跌破+下跳</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>趋势假跌破：S@3 = 0.359, S@5 = 0.345</t>
+          <t>上跳+十字星+下跳涨回+长阳包前</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1691,12 +1701,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M2505</t>
+          <t>SH2509</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FG2505</t>
+          <t>HC2510</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1707,32 +1717,27 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>M2505</t>
+          <t>IC2506</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>支撑位</t>
+          <t>30K压力位</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>长期大幅震荡下跌+短期小幅连续上涨</t>
+          <t>短期大幅连续上涨+短期中位中幅震荡</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>中期大幅连续下跌+中期大幅连续上涨+短期高位小幅震荡</t>
+          <t>长期中位小幅震荡+短期中幅连续下跌+短期小幅连续上涨</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>下跳+长阴跌破+下跳涨回</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>支撑位假跌破：S@3 = 0.440, S@5 = 0.421; 支撑位真跌破: S@3 = 0.468, S@5 = 0.457</t>
+          <t>下跳涨回+下跳+长阴跌破</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1750,12 +1755,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B2505</t>
+          <t>SP2509</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PK2505</t>
+          <t>PX2509</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1766,7 +1771,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>B2505</t>
+          <t>RM2509</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1776,22 +1781,17 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>长期大幅震荡下跌+短期小幅连续上涨</t>
+          <t>长期大幅震荡下跌+短期中幅震荡上涨</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>中期大幅连续下跌+中期大幅连续上涨+短期高位小幅震荡</t>
+          <t>长期大幅震荡上涨+中期高位中幅震荡</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>上跳跌回+长阴包前</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>支撑位假跌破：S@3 = 0.414, S@5 = 0.404; 支撑位真跌破: S@3 = 0.432, S@5 = 0.424</t>
+          <t>上跳跌回+上跳</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1804,44 +1804,34 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LH2505</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SC2505</t>
+          <t>OI2509</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>LH2505</t>
+          <t>EB2506</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>压力位</t>
+          <t>支撑位</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>长期低位中幅震荡+短期中幅震荡上涨+短期大幅连续下跌</t>
+          <t>中期大幅震荡上涨+中期大幅震荡下跌</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>长期中幅连续下跌+中期低位小幅震荡+短期小幅连续上涨</t>
+          <t>中期高位小幅震荡+中期大幅连续下跌</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>长阴跌破+上跳</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>压力位假突破：S@3 = 0.533, S@5 = 0.495; 压力位真突破: S@3 = 0.424, S@5 = 0.413</t>
+          <t>上跳+上跳跌回</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1863,19 +1853,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SF2505</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IF2504</t>
+          <t>ZN2509</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>SF2505</t>
+          <t>M2509</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1885,125 +1870,100 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>长期大幅震荡下跌+中期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>长期大幅震荡上涨+长期高位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>下跳涨回+上跳跌回+长阴包前</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>下跳涨回</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CJ2601</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>RU2509</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>20K压力位</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>长期大幅震荡上涨+短期大幅震荡下跌</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>长期大幅震荡下跌+短期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>上跳跌回</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>下跳涨回+破趋势</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>V2509</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>SF2507</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>支撑位</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>中期大幅震荡下跌</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>长期中幅震荡下跌</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>上跳跌回+长阴包前+上跳+长上影</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>支撑位假跌破：S@3 = 0.531, S@5 = 0.512; 支撑位真跌破: S@3 = 0.418, S@5 = 0.406</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>下跳涨回</t>
-        </is>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EC2506</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TL2506</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>EC2506</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>支撑位</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>中期中位大幅震荡</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>短期大幅急速上涨+短期高位大幅震荡</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>十字星+连续上跳跌回</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>支撑位假跌破：S@3 = 0.394, S@5 = 0.381; 支撑位真跌破: S@3 = 0.394, S@5 = 0.383</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>下跳涨回+破趋势</t>
-        </is>
-      </c>
-      <c r="AC12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OI2505</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SN2505</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>OI2505</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>压力位</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>中期中幅震荡上涨</t>
-        </is>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>短期大幅连续下跌+长期低位小幅震荡</t>
+          <t>长期大幅连续下跌</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>下跳+下跳涨回</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>压力位假突破：S@3 = 0.418, S@5 = 0.414; 压力位真突破: S@3 = 0.414, S@5 = 0.397</t>
+          <t>上跳跌回+下跳涨回</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2022,44 +1982,34 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PG2505</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AO2505</t>
+          <t>NI2509</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>PG2505</t>
+          <t>A2507</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>10K支撑位</t>
+          <t>压力位</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>长期中位中幅震荡且顶部下移</t>
+          <t>长期大幅震荡下跌+短期低位小幅震荡</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>短期小幅震荡下跌+短期小幅连续上涨</t>
+          <t>短期中幅连续下跌+短期中幅连续上涨+突破回踩</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>长阳突破+下跳涨回+上跳+十字星</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>趋势假跌破：S@3 = 0.406, S@5 = 0.403</t>
+          <t>下跳+长阴包前+长上影+上跳</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2084,44 +2034,34 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A2505</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SH2505</t>
+          <t>C2509</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>A2505</t>
+          <t>PF2507</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>5K压力位</t>
+          <t>30K压力位</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>长期大幅震荡下跌+短期小幅连续上涨+短期小幅连续下跌</t>
+          <t>中期大幅震荡下跌+短期小幅连续上涨</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>长期中幅震荡上张+短期中幅急速下跌</t>
+          <t>中期高位小幅震荡+中期大幅震荡下跌+短期中幅连续上涨</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>十字星+下跳</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>趋势假突破：S@3 = 0.438, S@5 = 0.418; 趋势真突破: S@3 = 0.393, S@5 = 0.377</t>
+          <t>下跳涨回+长阳突破</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2143,9 +2083,29 @@
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FU2505</t>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>AL2506</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>支撑位</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>长期中幅震荡上涨+长期高位小幅震荡</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>短期小幅连续下跌+短期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>无</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2173,9 +2133,29 @@
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>LU2506</t>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>HC2510</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>支撑位</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>长期大幅震荡下跌</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>长期中幅震荡下跌+短期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>上跳跌回+长阴包前+下跳+长阴跌破</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2188,9 +2168,29 @@
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EB2505</t>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>BR2507</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>20K压力位</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>长期大幅震荡上涨+中期大幅震荡下跌</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>长期大幅震荡下跌+短期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>上跳跌回+长阴包前</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2206,9 +2206,29 @@
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BU2506</t>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>CF2509</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>20K压力位</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>长期大幅震荡下跌</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>短期小幅连续下跌+短期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>无</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2242,9 +2262,29 @@
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>V2505</t>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>CY2507</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>30K压力位</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>长期大幅震荡下跌</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>长期大幅震荡下跌+短期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>长上影</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2257,9 +2297,29 @@
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>IH2506</t>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>PR2507</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>30K压力位</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>短期中幅连续下跌</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>中期大幅震荡下跌+短期中幅连续上涨</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>上跳+上跳跌回</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2272,9 +2332,29 @@
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SA2505</t>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>EG2509</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>20K压力位</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>长期中幅震荡上张+中期中幅连续下跌</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>长期大幅震荡下跌+短期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>上跳跌回</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2293,11 +2373,6 @@
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CJ2505</t>
-        </is>
-      </c>
       <c r="Y23" t="inlineStr">
         <is>
           <t>连续刺不破+长阴包前</t>
@@ -2308,11 +2383,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SR2505</t>
-        </is>
-      </c>
       <c r="Y24" t="inlineStr">
         <is>
           <t>长阳包前</t>
